--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -256,7 +256,32 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048568">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>A01AA01007</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sodium Chloride</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PARADONTAX TOOTHPASTE 55ml/TBE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6560" calcext:value-type="float">
+            <text:p>6560</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048567">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -273,11 +298,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T08:47:22.040456395</dc:date>
-    <meta:editing-duration>PT3M26S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <dc:date>2022-07-25T11:51:13.196453317</dc:date>
+    <meta:editing-duration>PT5M38S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="52" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="59" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -289,14 +314,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">42233</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">4030</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">4600</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">11</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -357,7 +382,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">mAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAuQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>

--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -281,7 +281,32 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048567">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>A01AA01008</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sodium Chloride</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>PARADONTAX TOOTHPASTE 23ml/TBE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6560" calcext:value-type="float">
+            <text:p>6560</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048566">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -298,11 +323,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T11:51:13.196453317</dc:date>
-    <meta:editing-duration>PT5M38S</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
+    <dc:date>2022-07-25T12:47:49.976896567</dc:date>
+    <meta:editing-duration>PT1H2M14S</meta:editing-duration>
+    <meta:editing-cycles>5</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="59" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="66" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -314,14 +339,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">42233</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">4600</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">5170</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>

--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -150,7 +150,7 @@
           </table:table-cell>
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>UPDATEDX2</text:p>
+            <text:p>UPDATEDx2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
@@ -252,7 +252,7 @@
           </table:table-cell>
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>UPDATEDX1</text:p>
+            <text:p>UPDATEDx1</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
@@ -323,9 +323,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T12:47:49.976896567</dc:date>
-    <meta:editing-duration>PT1H2M14S</meta:editing-duration>
-    <meta:editing-cycles>5</meta:editing-cycles>
+    <dc:date>2022-07-25T14:18:54.925487819</dc:date>
+    <meta:editing-duration>PT2H33M18S</meta:editing-duration>
+    <meta:editing-cycles>6</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="66" meta:object-count="0"/>
   </office:meta>
@@ -345,8 +345,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>

--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -306,7 +306,57 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048566">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>A01AA01009</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sodium Chloride</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>WHITEDENT TOOTHPASTE 23ml/TBE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2060" calcext:value-type="float">
+            <text:p>2060</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>A01AA01010</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sodium Chloride</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BUBLBE GUM </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2060" calcext:value-type="float">
+            <text:p>2060</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048564">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -323,11 +373,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T14:18:54.925487819</dc:date>
-    <meta:editing-duration>PT2H33M18S</meta:editing-duration>
-    <meta:editing-cycles>6</meta:editing-cycles>
+    <dc:date>2022-07-25T17:45:29.061665731</dc:date>
+    <meta:editing-duration>PT3H30M41S</meta:editing-duration>
+    <meta:editing-cycles>8</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="66" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="80" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -339,13 +389,13 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">42233</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">5170</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">6309</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
               <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
@@ -407,7 +457,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>

--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -339,7 +339,7 @@
             <text:p>Sodium Chloride</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>BUBLBE GUM </text:p>
+            <text:p>BUBBLE GUM </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>DT</text:p>
@@ -373,9 +373,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T17:45:29.061665731</dc:date>
-    <meta:editing-duration>PT3H30M41S</meta:editing-duration>
-    <meta:editing-cycles>8</meta:editing-cycles>
+    <dc:date>2022-07-25T18:45:43.578214716</dc:date>
+    <meta:editing-duration>PT4H30M55S</meta:editing-duration>
+    <meta:editing-cycles>9</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="80" meta:object-count="0"/>
   </office:meta>
@@ -410,7 +410,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1787</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1849</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>

--- a/uploads/uploadexcel-items.xlsx
+++ b/uploads/uploadexcel-items.xlsx
@@ -61,6 +61,9 @@
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:font-size="13pt" style:font-size-asian="13pt" style:font-size-complex="13pt"/>
     </style:style>
+    <style:style style:name="T1" style:family="text">
+      <style:text-properties style:font-name="Liberation Sans" fo:font-size="13pt" fo:font-weight="normal" style:text-underline-style="none" style:text-underline-color="font-color" style:text-line-through-type="none" fo:font-style="normal" style:text-outline="false" fo:text-shadow="none" style:text-line-through-mode="continuous" fo:language="en" fo:country="US" style:language-asian="zh" style:country-asian="CN" style:language-complex="hi" style:country-complex="IN" style:font-name-asian="Noto Sans CJK SC" style:font-name-complex="Lohit Devanagari" style:font-size-asian="13pt" style:font-size-complex="13pt" style:font-weight-asian="normal" style:font-weight-complex="normal" style:font-style-asian="normal" style:font-style-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
@@ -356,7 +359,35 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048564">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>A01AA01011</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sodium Chloride</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">TING TING </text:span>
+              BUBBLE GUM
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>DT</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>BOX</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2060" calcext:value-type="float">
+            <text:p>2060</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>NEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048563">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -373,11 +404,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2022-07-25T08:21:57.585355338</meta:creation-date>
-    <dc:date>2022-07-25T18:45:43.578214716</dc:date>
-    <meta:editing-duration>PT4H30M55S</meta:editing-duration>
-    <meta:editing-cycles>9</meta:editing-cycles>
+    <dc:date>2022-07-25T19:41:55.511907233</dc:date>
+    <meta:editing-duration>PT4H33M4S</meta:editing-duration>
+    <meta:editing-cycles>11</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.5.2$Linux_X86_64 LibreOffice_project/392c644e8a6d1ea0765aa2d613a91bcef808d6ea</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="80" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="87" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -389,14 +420,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">42233</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">6309</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">6879</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">11</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -410,7 +441,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1849</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1787</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -457,7 +488,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
